--- a/Arbeitszeit und Projektablaufplan/Körner Hendrik.xlsx
+++ b/Arbeitszeit und Projektablaufplan/Körner Hendrik.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\ITP\Semester 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reinhard\Documents\GitHub\Online-Cloud\Arbeitszeit und Projektablaufplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C03CCB-0362-4956-86B6-AD004BDCE78F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9892C1F-EFB7-4CCD-B559-2F749D026060}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7470" xr2:uid="{8356A7FD-E199-4728-893D-301D3645ECDF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Körner Hendrik" sheetId="2" r:id="rId1"/>
+    <sheet name="Körner Hendrik" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,23 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Git Hub Einrichten</t>
   </si>
   <si>
-    <t>0.5h</t>
-  </si>
-  <si>
     <t>Vorbesprechung /Arbeitsaufteilung in Packete/Zeitabschätzung …..</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
     <t>Organisatorishes</t>
   </si>
   <si>
@@ -63,51 +54,27 @@
     <t>CSS / Bootstrap</t>
   </si>
   <si>
-    <t>PHP Nav /Header /Main /Footer /Login / Registration</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>Grobes Design in Paint</t>
   </si>
   <si>
     <t>Seiten Design</t>
   </si>
   <si>
-    <t>Aufbauen, Designen</t>
-  </si>
-  <si>
     <t>Wbserver aufsetzen (Xampp)</t>
   </si>
   <si>
     <t>URL Einrichten</t>
   </si>
   <si>
-    <t>Webseit aufbauen</t>
-  </si>
-  <si>
     <t>Anpassen</t>
   </si>
   <si>
     <t>Besprochen mit Team</t>
   </si>
   <si>
-    <t>Resech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dateiverwaltungssystem Installieren </t>
-  </si>
-  <si>
     <t>NOOBS Heruntergeladen / SD Karte formatiert /Respbian installiert</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>Instaltation</t>
-  </si>
-  <si>
     <t>Raspbian (Debian Bassiert) speziel für Raspberry PI</t>
   </si>
   <si>
@@ -132,7 +99,52 @@
     <t>Aufgabe</t>
   </si>
   <si>
-    <t>Hendrik Körner</t>
+    <t>Installieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dateiverwaltungssystem </t>
+  </si>
+  <si>
+    <t>Software Installieren</t>
+  </si>
+  <si>
+    <t>Xampp Installieren</t>
+  </si>
+  <si>
+    <t>Webserver</t>
+  </si>
+  <si>
+    <t>Webseit aufbauen und Designen</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Nav Bar</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Teambesprechungen</t>
+  </si>
+  <si>
+    <t>Besprechungen mit Betreuer</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Körner Hendrik</t>
   </si>
 </sst>
 </file>
@@ -168,29 +180,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,232 +514,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E9BAB0-E373-4C47-BE9B-5ED244CDAA88}">
-  <dimension ref="B3:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67468EF7-70FB-4D5D-B59F-C977C30220F0}">
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>43186</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>43186</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>43186</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" t="s">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>43173</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>43181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="6">
         <v>43186</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>43186</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>43186</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>43181</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>43186</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G24" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C11:C15"/>
+  <mergeCells count="9">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
